--- a/src/main/resources/resource/BaseAttributeResource.xlsx
+++ b/src/main/resources/resource/BaseAttributeResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14015" windowHeight="5652"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>playerType</t>
   </si>
@@ -31,7 +31,13 @@
     <t>defense</t>
   </si>
   <si>
+    <t>attackLower</t>
+  </si>
+  <si>
     <t>attackUpper</t>
+  </si>
+  <si>
+    <t>defenseLower</t>
   </si>
   <si>
     <t>defenseUpper</t>
@@ -51,8 +57,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -70,13 +76,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -85,9 +84,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,21 +184,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,56 +197,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,21 +214,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -223,6 +229,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -235,13 +247,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,13 +301,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,31 +355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,31 +373,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,67 +409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,21 +420,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,16 +433,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,26 +467,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,133 +538,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,21 +990,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="20.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="10.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="16.8888888888889" customWidth="1"/>
+    <col min="7" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="18.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,10 +1027,16 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1038,15 +1051,21 @@
         <v>100</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G2">
+        <v>400</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>8</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1061,15 +1080,21 @@
         <v>200</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>300</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -1084,10 +1109,16 @@
         <v>300</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resource/BaseAttributeResource.xlsx
+++ b/src/main/resources/resource/BaseAttributeResource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>playerType</t>
   </si>
@@ -42,23 +42,14 @@
   <si>
     <t>defenseUpper</t>
   </si>
-  <si>
-    <t>p1001</t>
-  </si>
-  <si>
-    <t>p1002</t>
-  </si>
-  <si>
-    <t>p1003</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -77,105 +68,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -183,15 +75,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +85,66 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,8 +158,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,19 +226,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,42 +322,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -307,25 +334,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,49 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,18 +401,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,26 +434,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +477,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -520,16 +502,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +529,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -993,7 +984,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
@@ -1035,8 +1026,8 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
+      <c r="A2">
+        <v>1001</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1064,8 +1055,8 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3">
+        <v>1002</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -1093,8 +1084,8 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>11</v>
+      <c r="A4">
+        <v>1003</v>
       </c>
       <c r="B4">
         <v>100</v>

--- a/src/main/resources/resource/BaseAttributeResource.xlsx
+++ b/src/main/resources/resource/BaseAttributeResource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="21000" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,8 +50,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -65,6 +65,94 @@
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -75,81 +163,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -158,31 +171,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,22 +189,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,25 +220,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,151 +388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +424,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -438,17 +462,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,26 +482,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,9 +503,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,10 +517,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,7 +529,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,124 +538,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -984,7 +984,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3"/>
@@ -1030,7 +1030,7 @@
         <v>1001</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1059,7 +1059,7 @@
         <v>1002</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -1088,7 +1088,7 @@
         <v>1003</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C4">
         <v>100</v>
